--- a/統計管制與最佳化方法概論/homework/my_homework/HW14/hw_14.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW14/hw_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{60A4612D-5DC3-440F-966A-0F4210CBDA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356FD6EB-05A5-443A-9F70-A659D57F3CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="2490" windowWidth="19200" windowHeight="11460" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
   <si>
     <t>INN</t>
   </si>
@@ -456,12 +456,28 @@
     <t>t-test</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>(-)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentile</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>norm.inv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -486,6 +502,13 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -530,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -547,41 +570,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -623,6 +619,2465 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b0*2+E1234</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(工作表5!$R$12,工作表5!$M$12,工作表5!$S$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.59791781231757024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.3750000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49041781231757026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(工作表5!$K$12,工作表5!$K$12,工作表5!$K$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E5EE-4FFA-9D2F-0D07FC4E029F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1+E234</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(工作表5!$R$13,工作表5!$M$13,工作表5!$S$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1.3029178123175704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.21458218768242976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(工作表5!$K$13,工作表5!$K$13,工作表5!$K$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E5EE-4FFA-9D2F-0D07FC4E029F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2+E134</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(工作表5!$R$14,工作表5!$M$14,工作表5!$S$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.11208218768242972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2004178123175704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(工作表5!$K$14,工作表5!$K$14,工作表5!$K$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E5EE-4FFA-9D2F-0D07FC4E029F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3+E124</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(工作表5!$R$15,工作表5!$M$15,工作表5!$S$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19458218768242974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2829178123175704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(工作表5!$K$15,工作表5!$K$15,工作表5!$K$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E5EE-4FFA-9D2F-0D07FC4E029F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E4+E123</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(工作表5!$R$16,工作表5!$M$16,工作表5!$S$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-5.041781231757031E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49374999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0379178123175703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(工作表5!$K$16,工作表5!$K$16,工作表5!$K$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E5EE-4FFA-9D2F-0D07FC4E029F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E12+E34</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(工作表5!$R$17,工作表5!$M$17,工作表5!$S$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.38791781231757028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15625000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70041781231757028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(工作表5!$K$17,工作表5!$K$17,工作表5!$K$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E5EE-4FFA-9D2F-0D07FC4E029F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E13+E24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(工作表5!$R$18,工作表5!$M$18,工作表5!$S$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.81541781231757038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.27125000000000016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27291781231757012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(工作表5!$K$18,工作表5!$K$18,工作表5!$K$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E5EE-4FFA-9D2F-0D07FC4E029F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E23+E14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(工作表5!$R$19,工作表5!$M$19,工作表5!$S$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.76541781231757022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.22124999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32291781231757033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(工作表5!$K$19,工作表5!$K$19,工作表5!$K$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E5EE-4FFA-9D2F-0D07FC4E029F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1882620864"/>
+        <c:axId val="1882618368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1882620864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882618368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1882618368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1882620864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77376377952755904"/>
+          <c:y val="9.9534849810440362E-2"/>
+          <c:w val="0.20956955380577427"/>
+          <c:h val="0.7453747448235637"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Q-Q plot</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表5!$O$22:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.345763936554634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18680983383566183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34576393655463405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6393294883698582E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.18680983383566183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.6393294883698554E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表5!$M$22:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.75875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49374999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.27125000000000016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.22124999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB2A-4F13-AB6A-E01E0DC4BE60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$M$22:$M$28</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.75875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.27125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.22125</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表5!$M$22:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.75875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49374999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.27125000000000016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.22124999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表5!$M$22:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.75875000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49374999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15625000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.27125000000000016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.22124999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DB2A-4F13-AB6A-E01E0DC4BE60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1360779824"/>
+        <c:axId val="1360779408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1360779824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360779408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1360779408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1360779824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227A7A2B-4E8F-4953-BA89-629E8DE99860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>747714</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB45320-598D-4BE1-8E94-CBA43B02B4EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,16 +3400,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -978,7 +3433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -992,7 +3447,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1008,7 +3463,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +3481,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +3501,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +3523,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +3547,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1125,28 +3580,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -1154,7 +3609,7 @@
         <v>0.72461135818765321</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -1162,7 +3617,7 @@
         <v>0.5250616204145554</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -1170,7 +3625,7 @@
         <v>0.4944204346348493</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -1178,7 +3633,7 @@
         <v>5.5120843728792854</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1186,12 +3641,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>64</v>
@@ -1209,7 +3664,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1229,7 +3684,7 @@
         <v>3.0338150705478259E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -1245,7 +3700,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -1259,8 +3714,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>69</v>
@@ -1287,7 +3742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1316,7 +3771,7 @@
         <v>88.128751133632562</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1345,7 +3800,7 @@
         <v>-5.1251497341903741E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +3829,7 @@
         <v>-0.38954840142426894</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +3858,7 @@
         <v>2.6538003455693609E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1432,7 +3887,7 @@
         <v>0.47674437828932248</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +3916,7 @@
         <v>-0.13599871214233555</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1493,7 +3948,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E17:E23">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1502,28 +3957,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -1531,7 +3986,7 @@
         <v>0.71119000780630359</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -1539,7 +3994,7 @@
         <v>0.5057912272035302</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -1547,7 +4002,7 @@
         <v>0.48498243676999464</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -1555,7 +4010,7 @@
         <v>5.5632953955871027</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -1563,12 +4018,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>64</v>
@@ -1586,7 +4041,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -1606,7 +4061,7 @@
         <v>7.2297274395654958E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -1622,7 +4077,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -1636,8 +4091,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>69</v>
@@ -1664,7 +4119,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1693,7 +4148,7 @@
         <v>92.687077043925939</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -1722,7 +4177,7 @@
         <v>-5.3604306473371693E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1751,7 +4206,7 @@
         <v>-0.39238823171239368</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1780,7 +4235,7 @@
         <v>2.643420096959994E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -1816,16 +4271,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>38</v>
@@ -1912,7 +4367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -1947,7 +4402,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1984,7 +4439,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +4478,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2064,7 +4519,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2107,7 +4562,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2152,7 +4607,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -2199,7 +4654,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2248,7 +4703,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -2299,7 +4754,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -2352,7 +4807,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -2407,7 +4862,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -2464,7 +4919,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -2523,7 +4978,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2584,7 +5039,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2647,7 +5102,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2712,7 +5167,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -2779,7 +5234,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2848,7 +5303,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2919,7 +5374,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -2992,7 +5447,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -3067,7 +5522,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3144,7 +5599,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -3223,7 +5678,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -3304,7 +5759,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3387,7 +5842,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -3472,7 +5927,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -3559,7 +6014,7 @@
       </c>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -3665,19 +6120,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP102"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BC7" sqref="BC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3801,7 +6256,7 @@
         <v>INCOME</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3955,7 +6410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4109,7 +6564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4263,7 +6718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4417,7 +6872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4571,7 +7026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4725,7 +7180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4879,7 +7334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5033,7 +7488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5187,7 +7642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5341,7 +7796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5495,7 +7950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5649,7 +8104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5803,7 +8258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5957,7 +8412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6111,7 +8566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6265,7 +8720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6419,7 +8874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6573,7 +9028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6727,7 +9182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6881,7 +9336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -7035,7 +9490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -7189,7 +9644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -7343,7 +9798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -7497,7 +9952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -7651,7 +10106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -7805,7 +10260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -7959,7 +10414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -8113,7 +10568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -8267,7 +10722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -8421,7 +10876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -8575,7 +11030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -8729,7 +11184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -8883,7 +11338,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -9037,7 +11492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -9191,7 +11646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -9345,7 +11800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -9499,7 +11954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -9653,7 +12108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -9807,7 +12262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -9961,7 +12416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10115,7 +12570,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10269,7 +12724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10423,7 +12878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10577,7 +13032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10731,7 +13186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10885,7 +13340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -11039,7 +13494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -11193,7 +13648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -11347,7 +13802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -11501,7 +13956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -11655,7 +14110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -11809,7 +14264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -11963,7 +14418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -12117,7 +14572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -12271,7 +14726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -12425,7 +14880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -12579,7 +15034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -12733,7 +15188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -12887,7 +15342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -13041,7 +15496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -13195,7 +15650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -13349,7 +15804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -13503,7 +15958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -13657,7 +16112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -13811,7 +16266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -13957,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO101" si="67">E67</f>
+        <f t="shared" ref="AO67:AO100" si="67">E67</f>
         <v>300</v>
       </c>
       <c r="AP67">
@@ -13965,7 +16420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -14119,7 +16574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -14273,7 +16728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -14427,7 +16882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -14581,7 +17036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -14735,7 +17190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -14889,7 +17344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -15043,7 +17498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -15197,7 +17652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -15351,7 +17806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -15505,7 +17960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -15659,7 +18114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -15813,7 +18268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -15967,7 +18422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -16121,7 +18576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -16275,7 +18730,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -16429,7 +18884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -16583,7 +19038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -16737,7 +19192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -16891,7 +19346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -17045,7 +19500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -17199,7 +19654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -17353,7 +19808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -17507,7 +19962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -17661,7 +20116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -17815,7 +20270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -17969,7 +20424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -18123,7 +20578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -18277,7 +20732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -18431,7 +20886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -18585,7 +21040,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -18739,7 +21194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -18893,7 +21348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -19047,7 +21502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -19201,7 +21656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B102">
         <f>AVERAGE(B2:B101)</f>
         <v>45.738999999999997</v>
@@ -19238,25 +21693,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="7" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -19303,7 +21758,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19357,7 +21812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19407,7 +21862,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19457,7 +21912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19507,7 +21962,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19558,7 +22013,7 @@
         <v>0.22274374999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19608,7 +22063,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19659,7 +22114,7 @@
         <v>5.5685937499999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19709,13 +22164,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N10">
         <f>N8^0.5</f>
         <v>0.2359786801810706</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>A1</f>
         <v>test</v>
@@ -19767,8 +22222,14 @@
       <c r="Q11" t="s">
         <v>113</v>
       </c>
+      <c r="R11" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12:J12" si="7">A2</f>
         <v>1</v>
@@ -19809,6 +22270,9 @@
         <f t="shared" si="7"/>
         <v>-1.44</v>
       </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
       <c r="L12" t="str">
         <f>B28</f>
         <v>b0*2+E1234</v>
@@ -19833,8 +22297,16 @@
         <f>P12*$N$10</f>
         <v>0.54416781231757028</v>
       </c>
+      <c r="R12">
+        <f>M12-Q12</f>
+        <v>-0.59791781231757024</v>
+      </c>
+      <c r="S12">
+        <f>M12+Q12</f>
+        <v>0.49041781231757026</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:J13" si="8">A3</f>
         <v>2</v>
@@ -19875,6 +22347,9 @@
         <f t="shared" si="8"/>
         <v>-0.5</v>
       </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
       <c r="L13" t="str">
         <f>C28</f>
         <v>E1+E234</v>
@@ -19884,7 +22359,7 @@
         <v>-0.75875000000000004</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:N31" si="9">M13/$N$10</f>
+        <f t="shared" ref="N13:N19" si="9">M13/$N$10</f>
         <v>-3.2153328403133612</v>
       </c>
       <c r="O13">
@@ -19899,47 +22374,58 @@
         <f t="shared" ref="Q13:Q19" si="12">P13*$N$10</f>
         <v>0.54416781231757028</v>
       </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R31" si="13">M13-Q13</f>
+        <v>-1.3029178123175704</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S31" si="14">M13+Q13</f>
+        <v>-0.21458218768242976</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" ref="A14:J14" si="13">A4</f>
+        <f t="shared" ref="A14:J14" si="15">A4</f>
         <v>3</v>
       </c>
       <c r="B14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
       <c r="J14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.79</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
       </c>
       <c r="L14" t="str">
         <f>D28</f>
@@ -19965,47 +22451,58 @@
         <f t="shared" si="12"/>
         <v>0.54416781231757028</v>
       </c>
+      <c r="R14">
+        <f t="shared" si="13"/>
+        <v>0.11208218768242972</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="14"/>
+        <v>1.2004178123175704</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" ref="A15:J15" si="14">A5</f>
+        <f t="shared" ref="A15:J15" si="16">A5</f>
         <v>4</v>
       </c>
       <c r="B15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="I15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.22</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
       </c>
       <c r="L15" t="str">
         <f>E28</f>
@@ -20031,47 +22528,58 @@
         <f t="shared" si="12"/>
         <v>0.54416781231757028</v>
       </c>
+      <c r="R15">
+        <f t="shared" si="13"/>
+        <v>0.19458218768242974</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="14"/>
+        <v>1.2829178123175704</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" ref="A16:J16" si="15">A6</f>
+        <f t="shared" ref="A16:J16" si="17">A6</f>
         <v>5</v>
       </c>
       <c r="B16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="C16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="I16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.63</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
       </c>
       <c r="L16" t="str">
         <f>F28</f>
@@ -20097,47 +22605,58 @@
         <f t="shared" si="12"/>
         <v>0.54416781231757028</v>
       </c>
+      <c r="R16">
+        <f t="shared" si="13"/>
+        <v>-5.041781231757031E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="14"/>
+        <v>1.0379178123175703</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" ref="A17:J17" si="16">A7</f>
+        <f t="shared" ref="A17:J17" si="18">A7</f>
         <v>6</v>
       </c>
       <c r="B17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="J17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.47</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
       </c>
       <c r="L17" t="str">
         <f>G28</f>
@@ -20163,47 +22682,58 @@
         <f t="shared" si="12"/>
         <v>0.54416781231757028</v>
       </c>
+      <c r="R17">
+        <f t="shared" si="13"/>
+        <v>-0.38791781231757028</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="14"/>
+        <v>0.70041781231757028</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" ref="A18:J18" si="17">A8</f>
+        <f t="shared" ref="A18:J18" si="19">A8</f>
         <v>7</v>
       </c>
       <c r="B18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="J18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.29</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
       </c>
       <c r="L18" t="str">
         <f>H28</f>
@@ -20229,47 +22759,58 @@
         <f t="shared" si="12"/>
         <v>0.54416781231757028</v>
       </c>
+      <c r="R18">
+        <f t="shared" si="13"/>
+        <v>-0.81541781231757038</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>0.27291781231757012</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" ref="A19:J19" si="18">A9</f>
+        <f t="shared" ref="A19:J19" si="20">A9</f>
         <v>8</v>
       </c>
       <c r="B19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.4</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
       </c>
       <c r="L19" t="str">
         <f>I28</f>
@@ -20295,10 +22836,18 @@
         <f t="shared" si="12"/>
         <v>0.54416781231757028</v>
       </c>
+      <c r="R19">
+        <f t="shared" si="13"/>
+        <v>-0.76541781231757022</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="14"/>
+        <v>0.32291781231757033</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" ref="A20:I20" si="19">A2</f>
+        <f t="shared" ref="A20:I20" si="21">A2</f>
         <v>1</v>
       </c>
       <c r="B20">
@@ -20306,31 +22855,31 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J20">
@@ -20338,301 +22887,403 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" ref="A21:I21" si="20">A3</f>
+        <f t="shared" ref="A21:I21" si="22">A3</f>
         <v>2</v>
       </c>
       <c r="B21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="20"/>
-        <v>-1</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ref="J21:J27" si="21">K3</f>
-        <v>-0.24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <f t="shared" ref="A22:I22" si="22">A4</f>
-        <v>3</v>
-      </c>
-      <c r="B22">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C21">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="E22">
+      <c r="F21">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="H21">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="G22">
+      <c r="I21">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="22"/>
-        <v>-1</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="21"/>
-        <v>-0.64</v>
+      <c r="J21">
+        <f t="shared" ref="J21:J27" si="23">K3</f>
+        <v>-0.24</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <f t="shared" ref="A23:I23" si="23">A5</f>
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="23"/>
-        <v>-1</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="21"/>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <f t="shared" ref="A24:I24" si="24">A6</f>
-        <v>5</v>
-      </c>
-      <c r="B24">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ref="A22:I22" si="24">A4</f>
+        <v>3</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C22">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D22">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="E24">
+      <c r="E22">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="F24">
+      <c r="G22">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="G24">
+      <c r="I22">
         <f t="shared" si="24"/>
         <v>-1</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="21"/>
-        <v>-1.19</v>
+      <c r="J22">
+        <f t="shared" si="23"/>
+        <v>-0.64</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:M29" si="25">L13</f>
+        <v>E1+E234</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="25"/>
+        <v>-0.75875000000000004</v>
+      </c>
+      <c r="N22" s="7">
+        <f>(_xlfn.RANK.EQ(M22,$M$22:$M$28,1)-0.5)/7*100</f>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="O22">
+        <f>_xlfn.NORM.INV(N22/100,0,$N$10)</f>
+        <v>-0.345763936554634</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <f t="shared" ref="A25:I25" si="25">A7</f>
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="25"/>
-        <v>-1</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="21"/>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <f t="shared" ref="A26:I26" si="26">A8</f>
-        <v>7</v>
-      </c>
-      <c r="B26">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ref="A23:I23" si="26">A5</f>
+        <v>4</v>
+      </c>
+      <c r="B23">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C23">
         <f t="shared" si="26"/>
         <v>-1</v>
       </c>
-      <c r="D26">
+      <c r="D23">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="26"/>
         <v>-1</v>
       </c>
-      <c r="E26">
+      <c r="G23">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="23"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="25"/>
+        <v>E2+E134</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="25"/>
+        <v>0.65625</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" ref="N23:N28" si="27">(_xlfn.RANK.EQ(M23,$M$22:$M$28,1)-0.5)/7*100</f>
+        <v>78.571428571428569</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:O28" si="28">_xlfn.NORM.INV(N23/100,0,$N$10)</f>
+        <v>0.18680983383566183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ref="A24:I24" si="29">A6</f>
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="23"/>
+        <v>-1.19</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="25"/>
+        <v>E3+E124</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="25"/>
+        <v>0.73875000000000002</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="27"/>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="28"/>
+        <v>0.34576393655463405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ref="A25:I25" si="30">A7</f>
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="23"/>
+        <v>0.44</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="25"/>
+        <v>E4+E123</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="25"/>
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="27"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="28"/>
+        <v>8.6393294883698582E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ref="A26:I26" si="31">A8</f>
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
       <c r="F26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.64</v>
       </c>
+      <c r="L26" t="str">
+        <f t="shared" si="25"/>
+        <v>E12+E34</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="25"/>
+        <v>0.15625000000000003</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>A9</f>
         <v>8</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="27">B9</f>
+        <f t="shared" ref="B27" si="32">B9</f>
         <v>1</v>
       </c>
       <c r="C27">
-        <f>C9</f>
+        <f t="shared" ref="C27:I27" si="33">C9</f>
         <v>1</v>
       </c>
       <c r="D27">
-        <f>D9</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="E27">
-        <f>E9</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f>F9</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f>G9</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="H27">
-        <f>H9</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I27">
-        <f>I9</f>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.34</v>
       </c>
+      <c r="L27" t="str">
+        <f t="shared" si="25"/>
+        <v>E13+E24</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="25"/>
+        <v>-0.27125000000000016</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="27"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="28"/>
+        <v>-0.18680983383566183</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>103</v>
       </c>
@@ -20657,42 +23308,58 @@
       <c r="I28" t="s">
         <v>94</v>
       </c>
+      <c r="L28" t="str">
+        <f t="shared" si="25"/>
+        <v>E23+E14</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="25"/>
+        <v>-0.22124999999999997</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" si="27"/>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="28"/>
+        <v>-8.6393294883698554E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>SUMPRODUCT(B12:B27,$J$12:$J$27)/(8/2*2)</f>
         <v>-5.3750000000000013E-2</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:I29" si="28">SUMPRODUCT(C12:C27,$J$12:$J$27)/(8/2*2)</f>
+        <f t="shared" ref="C29:I29" si="34">SUMPRODUCT(C12:C27,$J$12:$J$27)/(8/2*2)</f>
         <v>-0.75875000000000004</v>
       </c>
       <c r="D29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.65625</v>
       </c>
       <c r="E29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.73875000000000002</v>
       </c>
       <c r="F29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.49374999999999997</v>
       </c>
       <c r="G29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.15625000000000003</v>
       </c>
       <c r="H29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-0.27125000000000016</v>
       </c>
       <c r="I29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-0.22124999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>96</v>
       </c>
@@ -20718,50 +23385,51 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>B29/2</f>
         <v>-2.6875000000000007E-2</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:I31" si="29">C29/2</f>
+        <f t="shared" ref="C31:I31" si="35">C29/2</f>
         <v>-0.37937500000000002</v>
       </c>
       <c r="D31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.328125</v>
       </c>
       <c r="E31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.36937500000000001</v>
       </c>
       <c r="F31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.24687499999999998</v>
       </c>
       <c r="G31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>7.8125000000000014E-2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.13562500000000008</v>
       </c>
       <c r="I31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-0.11062499999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N12:N19">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>$O$12</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>$P$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>$O$12</formula>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/HW14/hw_14.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW14/hw_14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356FD6EB-05A5-443A-9F70-A659D57F3CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FF3FE3-30D2-43CB-876A-85B78F2E07C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="2440" windowWidth="19200" windowHeight="11460" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="工作表4" sheetId="5" r:id="rId3"/>
     <sheet name="工作表6" sheetId="7" r:id="rId4"/>
     <sheet name="XM18-01" sheetId="1" r:id="rId5"/>
-    <sheet name="工作表5" sheetId="6" r:id="rId6"/>
+    <sheet name="4" sheetId="6" r:id="rId6"/>
+    <sheet name="4-spc.2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="161">
   <si>
     <t>INN</t>
   </si>
@@ -472,6 +473,170 @@
     <t>norm.inv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>y_bar_bar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS(toatal)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_bar^+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_bar^-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>source of variance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_0.05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R^2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjusted R^2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E124</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E134</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E234</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1234</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -521,7 +686,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -549,11 +714,354 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -573,11 +1081,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -642,80 +1252,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表5!$L$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>b0*2+E1234</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(工作表5!$R$12,工作表5!$M$12,工作表5!$S$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>-0.59791781231757024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5.3750000000000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49041781231757026</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(工作表5!$K$12,工作表5!$K$12,工作表5!$K$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E5EE-4FFA-9D2F-0D07FC4E029F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表5!$L$13</c:f>
+              <c:f>'4'!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -738,7 +1279,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(工作表5!$R$13,工作表5!$M$13,工作表5!$S$13)</c:f>
+              <c:f>('4'!$R$13,'4'!$M$13,'4'!$S$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -756,7 +1297,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(工作表5!$K$13,工作表5!$K$13,工作表5!$K$13)</c:f>
+              <c:f>('4'!$K$13,'4'!$K$13,'4'!$K$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -781,10 +1322,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表5!$L$14</c:f>
+              <c:f>'4'!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -807,7 +1348,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(工作表5!$R$14,工作表5!$M$14,工作表5!$S$14)</c:f>
+              <c:f>('4'!$R$14,'4'!$M$14,'4'!$S$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -825,7 +1366,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(工作表5!$K$14,工作表5!$K$14,工作表5!$K$14)</c:f>
+              <c:f>('4'!$K$14,'4'!$K$14,'4'!$K$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -850,10 +1391,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表5!$L$15</c:f>
+              <c:f>'4'!$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -876,7 +1417,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(工作表5!$R$15,工作表5!$M$15,工作表5!$S$15)</c:f>
+              <c:f>('4'!$R$15,'4'!$M$15,'4'!$S$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -894,7 +1435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(工作表5!$K$15,工作表5!$K$15,工作表5!$K$15)</c:f>
+              <c:f>('4'!$K$15,'4'!$K$15,'4'!$K$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -919,10 +1460,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表5!$L$16</c:f>
+              <c:f>'4'!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -945,7 +1486,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(工作表5!$R$16,工作表5!$M$16,工作表5!$S$16)</c:f>
+              <c:f>('4'!$R$16,'4'!$M$16,'4'!$S$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -963,7 +1504,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(工作表5!$K$16,工作表5!$K$16,工作表5!$K$16)</c:f>
+              <c:f>('4'!$K$16,'4'!$K$16,'4'!$K$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -988,10 +1529,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表5!$L$17</c:f>
+              <c:f>'4'!$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1014,7 +1555,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(工作表5!$R$17,工作表5!$M$17,工作表5!$S$17)</c:f>
+              <c:f>('4'!$R$17,'4'!$M$17,'4'!$S$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1032,7 +1573,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(工作表5!$K$17,工作表5!$K$17,工作表5!$K$17)</c:f>
+              <c:f>('4'!$K$17,'4'!$K$17,'4'!$K$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1057,10 +1598,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表5!$L$18</c:f>
+              <c:f>'4'!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1085,7 +1626,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(工作表5!$R$18,工作表5!$M$18,工作表5!$S$18)</c:f>
+              <c:f>('4'!$R$18,'4'!$M$18,'4'!$S$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1103,7 +1644,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(工作表5!$K$18,工作表5!$K$18,工作表5!$K$18)</c:f>
+              <c:f>('4'!$K$18,'4'!$K$18,'4'!$K$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1128,10 +1669,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表5!$L$19</c:f>
+              <c:f>'4'!$L$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1156,7 +1697,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>(工作表5!$R$19,工作表5!$M$19,工作表5!$S$19)</c:f>
+              <c:f>('4'!$R$19,'4'!$M$19,'4'!$S$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1174,7 +1715,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(工作表5!$K$19,工作表5!$K$19,工作表5!$K$19)</c:f>
+              <c:f>('4'!$K$19,'4'!$K$19,'4'!$K$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1528,7 +2069,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表5!$O$22:$O$28</c:f>
+              <c:f>'4'!$O$22:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1558,7 +2099,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表5!$M$22:$M$28</c:f>
+              <c:f>'4'!$M$22:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1598,7 +2139,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表5!$M$22:$M$28</c:f>
+              <c:f>'4'!$M$22:$M$28</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1639,7 +2180,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表5!$M$22:$M$28</c:f>
+              <c:f>'4'!$M$22:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1669,7 +2210,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表5!$M$22:$M$28</c:f>
+              <c:f>'4'!$M$22:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3007,16 +3548,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11565</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>520019</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3043,16 +3584,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>747714</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164420</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>195036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3407,9 +3948,13 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -3433,7 +3978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3447,7 +3992,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3463,7 +4008,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3481,7 +4026,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3501,7 +4046,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3523,7 +4068,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3547,7 +4092,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -3584,24 +4129,24 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A16" sqref="A16:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -3609,7 +4154,7 @@
         <v>0.72461135818765321</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -3617,7 +4162,7 @@
         <v>0.5250616204145554</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -3625,7 +4170,7 @@
         <v>0.4944204346348493</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -3633,7 +4178,7 @@
         <v>5.5120843728792854</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -3641,12 +4186,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>64</v>
@@ -3664,7 +4209,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -3684,7 +4229,7 @@
         <v>3.0338150705478259E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -3700,7 +4245,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -3714,8 +4259,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>69</v>
@@ -3742,7 +4287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -3771,7 +4316,7 @@
         <v>88.128751133632562</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -3800,7 +4345,7 @@
         <v>-5.1251497341903741E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3829,7 +4374,7 @@
         <v>-0.38954840142426894</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +4403,7 @@
         <v>2.6538003455693609E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -3887,7 +4432,7 @@
         <v>0.47674437828932248</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -3916,7 +4461,7 @@
         <v>-0.13599871214233555</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -3948,7 +4493,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E17:E23">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3961,24 +4506,24 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I24"/>
+      <selection activeCell="A10" sqref="A10:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -3986,7 +4531,7 @@
         <v>0.71119000780630359</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -3994,7 +4539,7 @@
         <v>0.5057912272035302</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -4002,7 +4547,7 @@
         <v>0.48498243676999464</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -4010,7 +4555,7 @@
         <v>5.5632953955871027</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -4018,12 +4563,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>64</v>
@@ -4041,7 +4586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -4061,7 +4606,7 @@
         <v>7.2297274395654958E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -4077,7 +4622,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -4091,8 +4636,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>69</v>
@@ -4119,7 +4664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -4148,7 +4693,7 @@
         <v>92.687077043925939</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4177,7 +4722,7 @@
         <v>-5.3604306473371693E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -4206,7 +4751,7 @@
         <v>-0.39238823171239368</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -4235,7 +4780,7 @@
         <v>2.643420096959994E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -4275,12 +4820,12 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection sqref="A1:AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>38</v>
@@ -4367,7 +4912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -4402,7 +4947,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4439,7 +4984,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4478,7 +5023,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -4519,7 +5064,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -4562,7 +5107,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -4607,7 +5152,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -4654,7 +5199,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -4703,7 +5248,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -4754,7 +5299,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -4807,7 +5352,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -4862,7 +5407,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -4919,7 +5464,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -4978,7 +5523,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -5039,7 +5584,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -5102,7 +5647,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -5167,7 +5712,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -5234,7 +5779,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -5303,7 +5848,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -5374,7 +5919,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -5447,7 +5992,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -5522,7 +6067,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -5599,7 +6144,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -5678,7 +6223,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -5759,7 +6304,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -5842,7 +6387,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -5927,7 +6472,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -6014,7 +6559,7 @@
       </c>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -6127,12 +6672,12 @@
       <selection activeCell="BC7" sqref="BC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6256,7 +6801,7 @@
         <v>INCOME</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6410,7 +6955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6564,7 +7109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6718,7 +7263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6872,7 +7417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7026,7 +7571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7180,7 +7725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7334,7 +7879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7488,7 +8033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7642,7 +8187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -7796,7 +8341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -7950,7 +8495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8104,7 +8649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -8258,7 +8803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8412,7 +8957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -8566,7 +9111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -8720,7 +9265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -8874,7 +9419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9028,7 +9573,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9182,7 +9727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9336,7 +9881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9490,7 +10035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9644,7 +10189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9798,7 +10343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9952,7 +10497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10106,7 +10651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10260,7 +10805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10414,7 +10959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10568,7 +11113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10722,7 +11267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10876,7 +11421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -11030,7 +11575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -11184,7 +11729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -11338,7 +11883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -11492,7 +12037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -11646,7 +12191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -11800,7 +12345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -11954,7 +12499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -12108,7 +12653,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -12262,7 +12807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -12416,7 +12961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -12570,7 +13115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -12724,7 +13269,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -12878,7 +13423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -13032,7 +13577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -13186,7 +13731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -13340,7 +13885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -13494,7 +14039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -13648,7 +14193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -13802,7 +14347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -13956,7 +14501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -14110,7 +14655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -14264,7 +14809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -14418,7 +14963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -14572,7 +15117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -14726,7 +15271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -14880,7 +15425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -15034,7 +15579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -15188,7 +15733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -15342,7 +15887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -15496,7 +16041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -15650,7 +16195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -15804,7 +16349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -15958,7 +16503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -16112,7 +16657,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -16266,7 +16811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -16420,7 +16965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -16574,7 +17119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -16728,7 +17273,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -16882,7 +17427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -17036,7 +17581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -17190,7 +17735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -17344,7 +17889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -17498,7 +18043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -17652,7 +18197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -17806,7 +18351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -17960,7 +18505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -18114,7 +18659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -18268,7 +18813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -18422,7 +18967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -18576,7 +19121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -18730,7 +19275,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -18884,7 +19429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -19038,7 +19583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -19192,7 +19737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -19346,7 +19891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -19500,7 +20045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -19654,7 +20199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -19808,7 +20353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -19962,7 +20507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -20116,7 +20661,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -20270,7 +20815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -20424,7 +20969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -20578,7 +21123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -20732,7 +21277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -20886,7 +21431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -21040,7 +21585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -21194,7 +21739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -21348,7 +21893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -21502,7 +22047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -21656,7 +22201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B102">
         <f>AVERAGE(B2:B101)</f>
         <v>45.738999999999997</v>
@@ -21694,483 +22239,699 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" customWidth="1"/>
+    <col min="21" max="21" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="U1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="11">
         <f>C2*D2*E2</f>
         <v>-1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="11">
         <f>C2*D2</f>
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="11">
         <f>C2*E2</f>
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="11">
         <f>D2*E2</f>
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="10">
         <v>-1.44</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="11">
         <v>-0.08</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="10">
         <f>AVERAGE(J2:K2)</f>
         <v>-0.76</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="22">
         <f>_xlfn.VAR.S(J2:K2)</f>
         <v>0.92480000000000007</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="11">
         <v>8</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="12">
         <f>N2*(N4-1)</f>
         <v>8</v>
       </c>
+      <c r="U2" cm="1">
+        <f t="array" ref="U2">SUM(((J2:K9)-$O$4)^2)</f>
+        <v>9.5533437499999998</v>
+      </c>
+      <c r="V2">
+        <f>AVERAGE(J3:K3,J4:K4,J6:K6,J9:K9)</f>
+        <v>-0.40625</v>
+      </c>
+      <c r="W2">
+        <f>AVERAGE(J2:K2,J5:K5,J7:K7,J8:K8)</f>
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="X2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y2">
+        <f>((V2-$O$4)^2+(W2-$O$4)^2)*$O$6/2</f>
+        <v>2.3028062499999997</v>
+      </c>
+      <c r="Z2">
+        <f>2-1</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="11">
         <f t="shared" ref="F3:F9" si="0">C3*D3*E3</f>
         <v>-1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <f t="shared" ref="G3:G9" si="1">C3*D3</f>
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="11">
         <f t="shared" ref="H3:H9" si="2">C3*E3</f>
         <v>-1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="11">
         <f t="shared" ref="I3:I9" si="3">D3*E3</f>
         <v>-1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="10">
         <v>-0.5</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="11">
         <v>-0.24</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="10">
         <f t="shared" ref="L3:L9" si="4">AVERAGE(J3:K3)</f>
         <v>-0.37</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="22">
         <f t="shared" ref="M3:M9" si="5">_xlfn.VAR.S(J3:K3)</f>
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="11" t="s">
         <v>107</v>
       </c>
+      <c r="O3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGE(J3:K3,J5:K5,J7:K7,J9:K9)</f>
+        <v>0.30124999999999996</v>
+      </c>
+      <c r="W3">
+        <f>AVERAGE(J2:K2,J4:K4,J6:K6,J8:K8)</f>
+        <v>-0.35499999999999993</v>
+      </c>
+      <c r="X3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y5" si="6">((V3-$O$4)^2+(W3-$O$4)^2)*$O$6/2</f>
+        <v>1.7226562499999993</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z5" si="7">2-1</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="11">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="11">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="10">
         <v>-0.79</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="11">
         <v>-0.64</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="10">
         <f t="shared" si="4"/>
         <v>-0.71500000000000008</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="22">
         <f t="shared" si="5"/>
         <v>1.124999999999976E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="11">
         <v>2</v>
       </c>
+      <c r="O4" s="12">
+        <f>AVERAGE(L2:L9)</f>
+        <v>-2.6874999999999968E-2</v>
+      </c>
+      <c r="U4">
+        <f>O6-1</f>
+        <v>15</v>
+      </c>
+      <c r="V4">
+        <f>AVERAGE(J4:K4,J5:K5,J8:K8,J9:K9)</f>
+        <v>0.34249999999999997</v>
+      </c>
+      <c r="W4">
+        <f>AVERAGE(J2:K2,J3:K3,J6:K6,J7:K7)</f>
+        <v>-0.39625000000000005</v>
+      </c>
+      <c r="X4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="6"/>
+        <v>2.18300625</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="11">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="11">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="10">
         <v>1.22</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="10">
         <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="22">
         <f t="shared" si="5"/>
         <v>0.44179999999999997</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="11" t="s">
         <v>108</v>
       </c>
+      <c r="O5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="V5">
+        <f>AVERAGE(J6:K6,J7:K7,J8:K8,J9:K9)</f>
+        <v>0.22</v>
+      </c>
+      <c r="W5">
+        <f>AVERAGE(J2:K2,J3:K3,J4:K4,J5:K5)</f>
+        <v>-0.27374999999999994</v>
+      </c>
+      <c r="X5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>0.97515624999999961</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="11">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="11">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="10">
         <v>-0.63</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="11">
         <v>-1.19</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="10">
         <f t="shared" si="4"/>
         <v>-0.90999999999999992</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="22">
         <f t="shared" si="5"/>
         <v>0.15680000000000027</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="11">
         <f>AVERAGE(M2:M9)</f>
         <v>0.22274374999999999</v>
       </c>
+      <c r="O6" s="12">
+        <f>N2*N4</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="11">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="11">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="10">
         <v>0.47</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="11">
         <v>0.44</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="10">
         <f t="shared" si="4"/>
         <v>0.45499999999999996</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="22">
         <f t="shared" si="5"/>
         <v>4.4999999999999912E-4</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="11" t="s">
         <v>109</v>
       </c>
+      <c r="O7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA7" s="31" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="11">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="11">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="10">
         <v>1.29</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="11">
         <v>0.64</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="10">
         <f t="shared" si="4"/>
         <v>0.96500000000000008</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="22">
         <f t="shared" si="5"/>
         <v>0.21124999999999972</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="14">
         <f>4*N6/(N2*N4)</f>
         <v>5.5685937499999998E-2</v>
       </c>
+      <c r="O8" s="15">
+        <f>N8^0.5</f>
+        <v>0.2359786801810706</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="11">
+        <f>Y2</f>
+        <v>2.3028062499999997</v>
+      </c>
+      <c r="W8" s="11">
+        <v>1</v>
+      </c>
+      <c r="X8" s="11">
+        <f>V8/W8</f>
+        <v>2.3028062499999997</v>
+      </c>
+      <c r="Y8" s="10">
+        <f>X8/$X$12</f>
+        <v>10.689398794688181</v>
+      </c>
+      <c r="Z8" s="10">
+        <f>_xlfn.F.DIST.RT(Y8,W8,$W$12)</f>
+        <v>7.4722825894196028E-3</v>
+      </c>
+      <c r="AA8" s="22">
+        <f>_xlfn.F.INV.RT(0.05,W8,$W$12)</f>
+        <v>4.8443356749436166</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="B9" s="25">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="20">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="25">
         <v>0.4</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="20">
         <v>0.34</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="25">
         <f t="shared" si="4"/>
         <v>0.37</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="23">
         <f t="shared" si="5"/>
         <v>1.8E-3</v>
       </c>
-      <c r="N9" t="s">
-        <v>114</v>
+      <c r="U9" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" ref="V9:V11" si="8">Y3</f>
+        <v>1.7226562499999993</v>
+      </c>
+      <c r="W9" s="11">
+        <v>1</v>
+      </c>
+      <c r="X9" s="11">
+        <f t="shared" ref="X9:X12" si="9">V9/W9</f>
+        <v>1.7226562499999993</v>
+      </c>
+      <c r="Y9" s="10">
+        <f t="shared" ref="Y9:Y11" si="10">X9/$X$12</f>
+        <v>7.9963998892273533</v>
+      </c>
+      <c r="Z9" s="10">
+        <f t="shared" ref="Z9:Z11" si="11">_xlfn.F.DIST.RT(Y9,W9,$W$12)</f>
+        <v>1.6436991695000798E-2</v>
+      </c>
+      <c r="AA9" s="22">
+        <f t="shared" ref="AA9:AA11" si="12">_xlfn.F.INV.RT(0.05,W9,$W$12)</f>
+        <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N10">
-        <f>N8^0.5</f>
-        <v>0.2359786801810706</v>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="U10" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="8"/>
+        <v>2.18300625</v>
+      </c>
+      <c r="W10" s="11">
+        <v>1</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="9"/>
+        <v>2.18300625</v>
+      </c>
+      <c r="Y10" s="10">
+        <f t="shared" si="10"/>
+        <v>10.133299046564066</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="11"/>
+        <v>8.7100708712743412E-3</v>
+      </c>
+      <c r="AA10" s="22">
+        <f t="shared" si="12"/>
+        <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f>A1</f>
         <v>test</v>
@@ -22180,31 +22941,31 @@
         <v>I_0=x1x2x3x4</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:I11" si="6">C1</f>
+        <f t="shared" ref="C11:I11" si="13">C1</f>
         <v>x1=x2x3x4</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>x2=x1x3x4</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>x3=x1x2x4</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>x4=x1x2x3</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>x1x2=x3x4</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>x1x3=x2x4</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>x2x3=x1x4</v>
       </c>
       <c r="J11" t="s">
@@ -22228,46 +22989,75 @@
       <c r="S11" t="s">
         <v>117</v>
       </c>
+      <c r="T11" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="V11" s="11">
+        <f t="shared" si="8"/>
+        <v>0.97515624999999961</v>
+      </c>
+      <c r="W11" s="11">
+        <v>1</v>
+      </c>
+      <c r="X11" s="11">
+        <f t="shared" si="9"/>
+        <v>0.97515624999999961</v>
+      </c>
+      <c r="Y11" s="10">
+        <f t="shared" si="10"/>
+        <v>4.5265788397884723</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="11"/>
+        <v>5.6818183231056245E-2</v>
+      </c>
+      <c r="AA11" s="22">
+        <f t="shared" si="12"/>
+        <v>4.8443356749436166</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
-        <f t="shared" ref="A12:J12" si="7">A2</f>
+        <f t="shared" ref="A12:J12" si="14">A2</f>
         <v>1</v>
       </c>
       <c r="B12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-1.44</v>
       </c>
       <c r="K12">
@@ -22282,7 +23072,7 @@
         <v>-5.3750000000000013E-2</v>
       </c>
       <c r="N12">
-        <f>M12/$N$10</f>
+        <f t="shared" ref="N12:N19" si="15">M12/$O$8</f>
         <v>-0.22777481405844244</v>
       </c>
       <c r="O12">
@@ -22294,7 +23084,7 @@
         <v>2.3060041352041662</v>
       </c>
       <c r="Q12">
-        <f>P12*$N$10</f>
+        <f t="shared" ref="Q12:Q19" si="16">P12*$O$8</f>
         <v>0.54416781231757028</v>
       </c>
       <c r="R12">
@@ -22305,46 +23095,68 @@
         <f>M12+Q12</f>
         <v>0.49041781231757026</v>
       </c>
+      <c r="T12" t="str">
+        <f>IF(OR(N12&lt;O12,N12&gt;P12),"reject","accept")</f>
+        <v>accept</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="V12" s="14">
+        <f>V13-SUM(V8:V11)</f>
+        <v>2.3697187500000014</v>
+      </c>
+      <c r="W12" s="14">
+        <f>W13-SUM(W8:W11)</f>
+        <v>11</v>
+      </c>
+      <c r="X12" s="14">
+        <f t="shared" si="9"/>
+        <v>0.21542897727272739</v>
+      </c>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="33"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13">
-        <f t="shared" ref="A13:J13" si="8">A3</f>
+        <f t="shared" ref="A13:J13" si="17">A3</f>
         <v>2</v>
       </c>
       <c r="B13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="C13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
       <c r="J13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>-0.5</v>
       </c>
       <c r="K13">
@@ -22359,69 +23171,87 @@
         <v>-0.75875000000000004</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:N19" si="9">M13/$N$10</f>
+        <f t="shared" si="15"/>
         <v>-3.2153328403133612</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O19" si="10">_xlfn.T.INV(0.025,8)</f>
+        <f t="shared" ref="O13:O19" si="18">_xlfn.T.INV(0.025,8)</f>
         <v>-2.3060041352041671</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:P19" si="11">_xlfn.T.INV(0.975,8)</f>
+        <f t="shared" ref="P13:P19" si="19">_xlfn.T.INV(0.975,8)</f>
         <v>2.3060041352041662</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13:Q19" si="12">P13*$N$10</f>
+        <f t="shared" si="16"/>
         <v>0.54416781231757028</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:R31" si="13">M13-Q13</f>
+        <f t="shared" ref="R13:R19" si="20">M13-Q13</f>
         <v>-1.3029178123175704</v>
       </c>
       <c r="S13">
-        <f t="shared" ref="S13:S31" si="14">M13+Q13</f>
+        <f t="shared" ref="S13:S19" si="21">M13+Q13</f>
         <v>-0.21458218768242976</v>
       </c>
+      <c r="T13" t="str">
+        <f t="shared" ref="T13:T19" si="22">IF(OR(N13&lt;O13,N13&gt;P13),"reject","accept")</f>
+        <v>reject</v>
+      </c>
+      <c r="U13" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" s="20">
+        <f>U2</f>
+        <v>9.5533437499999998</v>
+      </c>
+      <c r="W13" s="20">
+        <v>15</v>
+      </c>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="23"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14">
-        <f t="shared" ref="A14:J14" si="15">A4</f>
+        <f t="shared" ref="A14:J14" si="23">A4</f>
         <v>3</v>
       </c>
       <c r="B14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-1</v>
       </c>
       <c r="J14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>-0.79</v>
       </c>
       <c r="K14">
@@ -22436,69 +23266,73 @@
         <v>0.65625</v>
       </c>
       <c r="N14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.7809715669926107</v>
       </c>
       <c r="O14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.3060041352041671</v>
       </c>
       <c r="P14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.3060041352041662</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.54416781231757028</v>
       </c>
       <c r="R14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.11208218768242972</v>
       </c>
       <c r="S14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.2004178123175704</v>
       </c>
+      <c r="T14" t="str">
+        <f t="shared" si="22"/>
+        <v>reject</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15">
-        <f t="shared" ref="A15:J15" si="16">A5</f>
+        <f t="shared" ref="A15:J15" si="24">A5</f>
         <v>4</v>
       </c>
       <c r="B15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="I15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="J15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1.22</v>
       </c>
       <c r="K15">
@@ -22513,69 +23347,73 @@
         <v>0.73875000000000002</v>
       </c>
       <c r="N15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.1305794211288247</v>
       </c>
       <c r="O15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.3060041352041671</v>
       </c>
       <c r="P15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.3060041352041662</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.54416781231757028</v>
       </c>
       <c r="R15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.19458218768242974</v>
       </c>
       <c r="S15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.2829178123175704</v>
       </c>
+      <c r="T15" t="str">
+        <f t="shared" si="22"/>
+        <v>reject</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
-        <f t="shared" ref="A16:J16" si="17">A6</f>
+        <f t="shared" ref="A16:J16" si="25">A6</f>
         <v>5</v>
       </c>
       <c r="B16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="C16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="E16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="G16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-1</v>
       </c>
       <c r="I16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-0.63</v>
       </c>
       <c r="K16">
@@ -22590,69 +23428,94 @@
         <v>0.49374999999999997</v>
       </c>
       <c r="N16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.0923500361182499</v>
       </c>
       <c r="O16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.3060041352041671</v>
       </c>
       <c r="P16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.3060041352041662</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.54416781231757028</v>
       </c>
       <c r="R16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-5.041781231757031E-2</v>
       </c>
       <c r="S16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.0379178123175703</v>
       </c>
+      <c r="T16" t="str">
+        <f t="shared" si="22"/>
+        <v>accept</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="V16" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="X16" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z16" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA16" s="31" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17">
-        <f t="shared" ref="A17:J17" si="18">A7</f>
+        <f t="shared" ref="A17:J17" si="26">A7</f>
         <v>6</v>
       </c>
       <c r="B17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="C17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-1</v>
       </c>
       <c r="J17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.47</v>
       </c>
       <c r="K17">
@@ -22667,69 +23530,100 @@
         <v>0.15625000000000003</v>
       </c>
       <c r="N17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.66213608737919316</v>
       </c>
       <c r="O17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.3060041352041671</v>
       </c>
       <c r="P17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.3060041352041662</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.54416781231757028</v>
       </c>
       <c r="R17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-0.38791781231757028</v>
       </c>
       <c r="S17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.70041781231757028</v>
       </c>
+      <c r="T17" t="str">
+        <f t="shared" si="22"/>
+        <v>accept</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="V17" s="11">
+        <f>Y2</f>
+        <v>2.3028062499999997</v>
+      </c>
+      <c r="W17" s="11">
+        <f>Z2</f>
+        <v>1</v>
+      </c>
+      <c r="X17" s="11">
+        <f>V17/W17</f>
+        <v>2.3028062499999997</v>
+      </c>
+      <c r="Y17" s="38">
+        <f>X17/$X$20</f>
+        <v>8.2614970664075607</v>
+      </c>
+      <c r="Z17" s="38">
+        <f>_xlfn.F.DIST.RT(Y17,W17,$W$20)</f>
+        <v>1.3978226747673846E-2</v>
+      </c>
+      <c r="AA17" s="22">
+        <f>_xlfn.F.INV.RT(0.05,W17,$W$20)</f>
+        <v>4.7472253467225149</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18">
-        <f t="shared" ref="A18:J18" si="19">A8</f>
+        <f t="shared" ref="A18:J18" si="27">A8</f>
         <v>7</v>
       </c>
       <c r="B18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="C18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="J18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.29</v>
       </c>
       <c r="K18">
@@ -22744,69 +23638,100 @@
         <v>-0.27125000000000016</v>
       </c>
       <c r="N18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-1.1494682476902798</v>
       </c>
       <c r="O18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.3060041352041671</v>
       </c>
       <c r="P18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.3060041352041662</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.54416781231757028</v>
       </c>
       <c r="R18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-0.81541781231757038</v>
       </c>
       <c r="S18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.27291781231757012</v>
       </c>
+      <c r="T18" t="str">
+        <f t="shared" si="22"/>
+        <v>accept</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" ref="V18:V19" si="28">Y3</f>
+        <v>1.7226562499999993</v>
+      </c>
+      <c r="W18" s="11">
+        <f t="shared" ref="W18:W19" si="29">Z3</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" ref="X18:X20" si="30">V18/W18</f>
+        <v>1.7226562499999993</v>
+      </c>
+      <c r="Y18" s="38">
+        <f t="shared" ref="Y18:Y19" si="31">X18/$X$20</f>
+        <v>6.1801636832467537</v>
+      </c>
+      <c r="Z18" s="38">
+        <f t="shared" ref="Z18:Z19" si="32">_xlfn.F.DIST.RT(Y18,W18,$W$20)</f>
+        <v>2.8641716344021372E-2</v>
+      </c>
+      <c r="AA18" s="22">
+        <f t="shared" ref="AA18:AA19" si="33">_xlfn.F.INV.RT(0.05,W18,$W$20)</f>
+        <v>4.7472253467225149</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19">
-        <f t="shared" ref="A19:J19" si="20">A9</f>
+        <f t="shared" ref="A19:J19" si="34">A9</f>
         <v>8</v>
       </c>
       <c r="B19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="C19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="G19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="I19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="J19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>0.4</v>
       </c>
       <c r="K19">
@@ -22821,33 +23746,64 @@
         <v>-0.22124999999999997</v>
       </c>
       <c r="N19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.93758469972893721</v>
       </c>
       <c r="O19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-2.3060041352041671</v>
       </c>
       <c r="P19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2.3060041352041662</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.54416781231757028</v>
       </c>
       <c r="R19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-0.76541781231757022</v>
       </c>
       <c r="S19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.32291781231757033</v>
       </c>
+      <c r="T19" t="str">
+        <f t="shared" si="22"/>
+        <v>accept</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" si="28"/>
+        <v>2.18300625</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="11">
+        <f t="shared" si="30"/>
+        <v>2.18300625</v>
+      </c>
+      <c r="Y19" s="38">
+        <f t="shared" si="31"/>
+        <v>7.8317052206734159</v>
+      </c>
+      <c r="Z19" s="38">
+        <f t="shared" si="32"/>
+        <v>1.608839328656396E-2</v>
+      </c>
+      <c r="AA19" s="22">
+        <f t="shared" si="33"/>
+        <v>4.7472253467225149</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20">
-        <f t="shared" ref="A20:I20" si="21">A2</f>
+        <f t="shared" ref="A20:I20" si="35">A2</f>
         <v>1</v>
       </c>
       <c r="B20">
@@ -22855,78 +23811,99 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="D20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="G20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="J20">
         <f>K2</f>
         <v>-0.08</v>
       </c>
+      <c r="U20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V20" s="11">
+        <f>V21-SUM(V17:V19)</f>
+        <v>3.3448750000000009</v>
+      </c>
+      <c r="W20" s="11">
+        <f>W21-SUM(W17:W19)</f>
+        <v>12</v>
+      </c>
+      <c r="X20" s="11">
+        <f t="shared" si="30"/>
+        <v>0.27873958333333343</v>
+      </c>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="22"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21">
-        <f t="shared" ref="A21:I21" si="22">A3</f>
+        <f t="shared" ref="A21:I21" si="36">A3</f>
         <v>2</v>
       </c>
       <c r="B21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="C21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="I21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>-1</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:J27" si="23">K3</f>
+        <f t="shared" ref="J21:J27" si="37">K3</f>
         <v>-0.24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>160</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>118</v>
@@ -22934,54 +23911,69 @@
       <c r="O21" t="s">
         <v>119</v>
       </c>
+      <c r="U21" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="V21" s="35">
+        <f>U2</f>
+        <v>9.5533437499999998</v>
+      </c>
+      <c r="W21" s="35">
+        <f>U4</f>
+        <v>15</v>
+      </c>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="36"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22">
-        <f t="shared" ref="A22:I22" si="24">A4</f>
+        <f t="shared" ref="A22:I22" si="38">A4</f>
         <v>3</v>
       </c>
       <c r="B22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="C22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="I22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="J22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>-0.64</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" ref="L22:M29" si="25">L13</f>
+        <f t="shared" ref="L22:M28" si="39">L13</f>
         <v>E1+E234</v>
       </c>
       <c r="M22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>-0.75875000000000004</v>
       </c>
       <c r="N22" s="7">
@@ -22989,301 +23981,315 @@
         <v>7.1428571428571423</v>
       </c>
       <c r="O22">
-        <f>_xlfn.NORM.INV(N22/100,0,$N$10)</f>
+        <f t="shared" ref="O22:O28" si="40">_xlfn.NORM.INV(N22/100,0,$O$8)</f>
         <v>-0.345763936554634</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23">
-        <f t="shared" ref="A23:I23" si="26">A5</f>
+        <f t="shared" ref="A23:I23" si="41">A5</f>
         <v>4</v>
       </c>
       <c r="B23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="C23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="F23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="G23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="I23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>E2+E134</v>
       </c>
       <c r="M23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>0.65625</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" ref="N23:N28" si="27">(_xlfn.RANK.EQ(M23,$M$22:$M$28,1)-0.5)/7*100</f>
+        <f t="shared" ref="N23:N28" si="42">(_xlfn.RANK.EQ(M23,$M$22:$M$28,1)-0.5)/7*100</f>
         <v>78.571428571428569</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O28" si="28">_xlfn.NORM.INV(N23/100,0,$N$10)</f>
+        <f t="shared" si="40"/>
         <v>0.18680983383566183</v>
       </c>
+      <c r="V23" t="s">
+        <v>142</v>
+      </c>
+      <c r="W23" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24">
-        <f t="shared" ref="A24:I24" si="29">A6</f>
+        <f t="shared" ref="A24:I24" si="43">A6</f>
         <v>5</v>
       </c>
       <c r="B24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="C24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>-1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="J24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>-1.19</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>E3+E124</v>
       </c>
       <c r="M24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>0.73875000000000002</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>92.857142857142861</v>
       </c>
       <c r="O24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0.34576393655463405</v>
       </c>
+      <c r="V24">
+        <f>SUM(V17:V19)/V21</f>
+        <v>0.64987389886394475</v>
+      </c>
+      <c r="W24">
+        <f>1-(V20/W20)/(V21/W21)</f>
+        <v>0.56234237357993089</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25">
-        <f t="shared" ref="A25:I25" si="30">A7</f>
+        <f t="shared" ref="A25:I25" si="44">A7</f>
         <v>6</v>
       </c>
       <c r="B25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="C25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="I25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>-1</v>
       </c>
       <c r="J25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>0.44</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>E4+E123</v>
       </c>
       <c r="M25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>0.49374999999999997</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>64.285714285714292</v>
       </c>
       <c r="O25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>8.6393294883698582E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26">
-        <f t="shared" ref="A26:I26" si="31">A8</f>
+        <f t="shared" ref="A26:I26" si="45">A8</f>
         <v>7</v>
       </c>
       <c r="B26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="C26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>-1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>0.64</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>E12+E34</v>
       </c>
       <c r="M26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>0.15625000000000003</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>50</v>
       </c>
       <c r="O26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27">
         <f>A9</f>
         <v>8</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="32">B9</f>
+        <f t="shared" ref="B27" si="46">B9</f>
         <v>1</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:I27" si="33">C9</f>
+        <f t="shared" ref="C27:I27" si="47">C9</f>
         <v>1</v>
       </c>
       <c r="D27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>0.34</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>E13+E24</v>
       </c>
       <c r="M27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>-0.27125000000000016</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>21.428571428571427</v>
       </c>
       <c r="O27">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>-0.18680983383566183</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>103</v>
       </c>
@@ -23309,57 +24315,82 @@
         <v>94</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>E23+E14</v>
       </c>
       <c r="M28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>-0.22124999999999997</v>
       </c>
       <c r="N28" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="42"/>
         <v>35.714285714285715</v>
       </c>
       <c r="O28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>-8.6393294883698554E-2</v>
       </c>
+      <c r="X28" t="str" cm="1">
+        <f t="array" ref="X28:AA29">TRANSPOSE(X2:Y5)</f>
+        <v>SS1</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>SS2</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>SS3</v>
+      </c>
+      <c r="AA28" t="str">
+        <v>SS4</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B29">
         <f>SUMPRODUCT(B12:B27,$J$12:$J$27)/(8/2*2)</f>
         <v>-5.3750000000000013E-2</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:I29" si="34">SUMPRODUCT(C12:C27,$J$12:$J$27)/(8/2*2)</f>
+        <f t="shared" ref="C29:I29" si="48">SUMPRODUCT(C12:C27,$J$12:$J$27)/(8/2*2)</f>
         <v>-0.75875000000000004</v>
       </c>
       <c r="D29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>0.65625</v>
       </c>
       <c r="E29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>0.73875000000000002</v>
       </c>
       <c r="F29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>0.49374999999999997</v>
       </c>
       <c r="G29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>0.15625000000000003</v>
       </c>
       <c r="H29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>-0.27125000000000016</v>
       </c>
       <c r="I29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>-0.22124999999999997</v>
       </c>
+      <c r="X29">
+        <v>2.3028062499999997</v>
+      </c>
+      <c r="Y29">
+        <v>1.7226562499999993</v>
+      </c>
+      <c r="Z29">
+        <v>2.18300625</v>
+      </c>
+      <c r="AA29">
+        <v>0.97515624999999961</v>
+      </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>96</v>
       </c>
@@ -23385,51 +24416,2756 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B31">
         <f>B29/2</f>
         <v>-2.6875000000000007E-2</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:I31" si="35">C29/2</f>
+        <f t="shared" ref="C31:I31" si="49">C29/2</f>
         <v>-0.37937500000000002</v>
       </c>
       <c r="D31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.328125</v>
       </c>
       <c r="E31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.36937500000000001</v>
       </c>
       <c r="F31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>0.24687499999999998</v>
       </c>
       <c r="G31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>7.8125000000000014E-2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>-0.13562500000000008</v>
       </c>
       <c r="I31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>-0.11062499999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N12:N19">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>$O$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>$P$12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:T15">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="r">
+      <formula>NOT(ISERROR(SEARCH("r",T13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8:Y11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$AA$8</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFE66D8-8231-45C4-BCC7-75C2385428AA}">
+  <dimension ref="A1:Q55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1.44</v>
+      </c>
+      <c r="G2">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1.79</v>
+      </c>
+      <c r="G3">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>0.39</v>
+      </c>
+      <c r="G4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-0.5</v>
+      </c>
+      <c r="G5">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-0.2</v>
+      </c>
+      <c r="G6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-0.79</v>
+      </c>
+      <c r="G7">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1.22</v>
+      </c>
+      <c r="G8">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>0.21</v>
+      </c>
+      <c r="G9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-0.4</v>
+      </c>
+      <c r="G10">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-0.63</v>
+      </c>
+      <c r="G11">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.47</v>
+      </c>
+      <c r="G12">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-0.01</v>
+      </c>
+      <c r="G13">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1.29</v>
+      </c>
+      <c r="G14">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-1.17</v>
+      </c>
+      <c r="G15">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.48</v>
+      </c>
+      <c r="G16">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>34</v>
+      </c>
+      <c r="L19">
+        <v>123</v>
+      </c>
+      <c r="M19">
+        <v>124</v>
+      </c>
+      <c r="N19">
+        <v>134</v>
+      </c>
+      <c r="O19">
+        <v>234</v>
+      </c>
+      <c r="P19">
+        <v>1234</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <f>B20*C20</f>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>B20*D20</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>B20*E20</f>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f>C20*D20</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f>C20*E20</f>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f>D20*E20</f>
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f>B20*C20*D20</f>
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <f>B20*C20*E20</f>
+        <v>-1</v>
+      </c>
+      <c r="N20">
+        <f>B20*D20*E20</f>
+        <v>-1</v>
+      </c>
+      <c r="O20">
+        <f>C20*D20*E20</f>
+        <v>-1</v>
+      </c>
+      <c r="P20">
+        <f>B20*C20*D20*E20</f>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>-1.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F51" si="0">B21*C21</f>
+        <v>-1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G51" si="1">B21*D21</f>
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H51" si="2">B21*E21</f>
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I51" si="3">C21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J51" si="4">C21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K51" si="5">D21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L51" si="6">B21*C21*D21</f>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:M51" si="7">B21*C21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21:N51" si="8">B21*D21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:O51" si="9">C21*D21*E21</f>
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21:P51" si="10">B21*C21*D21*E21</f>
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q22">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q24">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q28">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>-1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f>B20</f>
+        <v>-1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:E36" si="11">C20</f>
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:E51" si="12">B21</f>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q37">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q43">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q44">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q47">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q49">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="Q50">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" t="s">
+        <v>151</v>
+      </c>
+      <c r="J52" t="s">
+        <v>152</v>
+      </c>
+      <c r="K52" t="s">
+        <v>153</v>
+      </c>
+      <c r="L52" t="s">
+        <v>154</v>
+      </c>
+      <c r="M52" t="s">
+        <v>155</v>
+      </c>
+      <c r="N52" t="s">
+        <v>156</v>
+      </c>
+      <c r="O52" t="s">
+        <v>157</v>
+      </c>
+      <c r="P52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <f>SUMPRODUCT(B20:B51,$Q$20:$Q$51)/(16/2*2)</f>
+        <v>-0.65437499999999993</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:P53" si="13">SUMPRODUCT(C20:C51,$Q$20:$Q$51)/(16/2*2)</f>
+        <v>0.79437499999999994</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="13"/>
+        <v>0.63812500000000016</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="13"/>
+        <v>0.32187500000000002</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="13"/>
+        <v>0.14687500000000006</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="13"/>
+        <v>-0.11687499999999999</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="13"/>
+        <v>-3.0624999999999906E-2</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="13"/>
+        <v>-0.19062499999999996</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="13"/>
+        <v>-0.15437499999999998</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="13"/>
+        <v>9.3750000000000049E-3</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="13"/>
+        <v>0.17187499999999997</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="13"/>
+        <v>0.10062499999999998</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="13"/>
+        <v>-0.13812500000000003</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="13"/>
+        <v>-0.10437500000000004</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="13"/>
+        <v>0.12062499999999991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <f>B53+O53</f>
+        <v>-0.75874999999999992</v>
+      </c>
+      <c r="C55">
+        <f>C53+N53</f>
+        <v>0.65624999999999989</v>
+      </c>
+      <c r="D55">
+        <f>D53+M53</f>
+        <v>0.73875000000000013</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/HW14/hw_14.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW14/hw_14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FF3FE3-30D2-43CB-876A-85B78F2E07C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7F872E-82D5-485B-8C2C-F41D662BD1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2440" windowWidth="19200" windowHeight="11460" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25770" yWindow="8205" windowWidth="21600" windowHeight="11295" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1117,57 +1117,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3948,13 +3898,13 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -3978,7 +3928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3992,7 +3942,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4008,7 +3958,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4026,7 +3976,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4046,7 +3996,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4068,7 +4018,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4092,7 +4042,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4132,21 +4082,21 @@
       <selection activeCell="A16" sqref="A16:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -4154,7 +4104,7 @@
         <v>0.72461135818765321</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -4162,7 +4112,7 @@
         <v>0.5250616204145554</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -4170,7 +4120,7 @@
         <v>0.4944204346348493</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -4178,7 +4128,7 @@
         <v>5.5120843728792854</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -4186,12 +4136,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>64</v>
@@ -4209,7 +4159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -4229,7 +4179,7 @@
         <v>3.0338150705478259E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -4245,7 +4195,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -4259,8 +4209,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>69</v>
@@ -4287,7 +4237,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -4316,7 +4266,7 @@
         <v>88.128751133632562</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4345,7 +4295,7 @@
         <v>-5.1251497341903741E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,7 +4324,7 @@
         <v>-0.38954840142426894</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -4403,7 +4353,7 @@
         <v>2.6538003455693609E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -4432,7 +4382,7 @@
         <v>0.47674437828932248</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -4461,7 +4411,7 @@
         <v>-0.13599871214233555</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4493,7 +4443,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E17:E23">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4509,21 +4459,21 @@
       <selection activeCell="A10" sqref="A10:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -4531,7 +4481,7 @@
         <v>0.71119000780630359</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -4539,7 +4489,7 @@
         <v>0.5057912272035302</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -4547,7 +4497,7 @@
         <v>0.48498243676999464</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -4555,7 +4505,7 @@
         <v>5.5632953955871027</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -4563,12 +4513,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>64</v>
@@ -4586,7 +4536,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -4606,7 +4556,7 @@
         <v>7.2297274395654958E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -4622,7 +4572,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -4636,8 +4586,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>69</v>
@@ -4664,7 +4614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -4693,7 +4643,7 @@
         <v>92.687077043925939</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4722,7 +4672,7 @@
         <v>-5.3604306473371693E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -4751,7 +4701,7 @@
         <v>-0.39238823171239368</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -4780,7 +4730,7 @@
         <v>2.643420096959994E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -4823,9 +4773,9 @@
       <selection sqref="A1:AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>38</v>
@@ -4912,7 +4862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -4947,7 +4897,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4984,7 +4934,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -5023,7 +4973,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -5064,7 +5014,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -5107,7 +5057,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -5152,7 +5102,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5199,7 +5149,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -5248,7 +5198,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -5299,7 +5249,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -5352,7 +5302,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -5407,7 +5357,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -5464,7 +5414,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -5523,7 +5473,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -5584,7 +5534,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -5647,7 +5597,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -5712,7 +5662,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -5779,7 +5729,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -5848,7 +5798,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -5919,7 +5869,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -5992,7 +5942,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -6067,7 +6017,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -6144,7 +6094,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -6223,7 +6173,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -6304,7 +6254,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -6387,7 +6337,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -6472,7 +6422,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -6559,7 +6509,7 @@
       </c>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -6672,12 +6622,12 @@
       <selection activeCell="BC7" sqref="BC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6801,7 +6751,7 @@
         <v>INCOME</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6955,7 +6905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7109,7 +7059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -7263,7 +7213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -7417,7 +7367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7571,7 +7521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7725,7 +7675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7879,7 +7829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8033,7 +7983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8187,7 +8137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -8341,7 +8291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8495,7 +8445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8649,7 +8599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -8803,7 +8753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8957,7 +8907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9111,7 +9061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9265,7 +9215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9419,7 +9369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9573,7 +9523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9727,7 +9677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9881,7 +9831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10035,7 +9985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10189,7 +10139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10343,7 +10293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10497,7 +10447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10651,7 +10601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10805,7 +10755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10959,7 +10909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -11113,7 +11063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -11267,7 +11217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -11421,7 +11371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -11575,7 +11525,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -11729,7 +11679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -11883,7 +11833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -12037,7 +11987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -12191,7 +12141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -12345,7 +12295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -12499,7 +12449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -12653,7 +12603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -12807,7 +12757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -12961,7 +12911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -13115,7 +13065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -13269,7 +13219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -13423,7 +13373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -13577,7 +13527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -13731,7 +13681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -13885,7 +13835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -14039,7 +13989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -14193,7 +14143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -14347,7 +14297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -14501,7 +14451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -14655,7 +14605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -14809,7 +14759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -14963,7 +14913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -15117,7 +15067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -15271,7 +15221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -15425,7 +15375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -15579,7 +15529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -15733,7 +15683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -15887,7 +15837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -16041,7 +15991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -16195,7 +16145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -16349,7 +16299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -16503,7 +16453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -16657,7 +16607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -16811,7 +16761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -16965,7 +16915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -17119,7 +17069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -17273,7 +17223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -17427,7 +17377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -17581,7 +17531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -17735,7 +17685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -17889,7 +17839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -18043,7 +17993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -18197,7 +18147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -18351,7 +18301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -18505,7 +18455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -18659,7 +18609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -18813,7 +18763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -18967,7 +18917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -19121,7 +19071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -19275,7 +19225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -19429,7 +19379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -19583,7 +19533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -19737,7 +19687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -19891,7 +19841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -20045,7 +19995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -20199,7 +20149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -20353,7 +20303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -20507,7 +20457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -20661,7 +20611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -20815,7 +20765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -20969,7 +20919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -21123,7 +21073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -21277,7 +21227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -21431,7 +21381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -21585,7 +21535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -21739,7 +21689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -21893,7 +21843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -22047,7 +21997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -22201,7 +22151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B102">
         <f>AVERAGE(B2:B101)</f>
         <v>45.738999999999997</v>
@@ -22241,25 +22191,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" customWidth="1"/>
-    <col min="21" max="21" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.75" customWidth="1"/>
+    <col min="21" max="21" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>76</v>
       </c>
@@ -22318,7 +22268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -22395,7 +22345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -22470,7 +22420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -22547,7 +22497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -22620,7 +22570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -22675,7 +22625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -22749,7 +22699,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -22830,7 +22780,7 @@
         <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -22903,7 +22853,7 @@
         <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="U10" s="26" t="s">
         <v>136</v>
       </c>
@@ -22931,7 +22881,7 @@
         <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>A1</f>
         <v>test</v>
@@ -23019,7 +22969,7 @@
         <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12:J12" si="14">A2</f>
         <v>1</v>
@@ -23118,7 +23068,7 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="33"/>
     </row>
-    <row r="13" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" ref="A13:J13" si="17">A3</f>
         <v>2</v>
@@ -23213,7 +23163,7 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="23"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14:J14" si="23">A4</f>
         <v>3</v>
@@ -23294,7 +23244,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" ref="A15:J15" si="24">A5</f>
         <v>4</v>
@@ -23375,7 +23325,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ref="A16:J16" si="25">A6</f>
         <v>5</v>
@@ -23477,7 +23427,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ref="A17:J17" si="26">A7</f>
         <v>6</v>
@@ -23585,7 +23535,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ref="A18:J18" si="27">A8</f>
         <v>7</v>
@@ -23693,7 +23643,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ref="A19:J19" si="34">A9</f>
         <v>8</v>
@@ -23801,7 +23751,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ref="A20:I20" si="35">A2</f>
         <v>1</v>
@@ -23861,7 +23811,7 @@
       <c r="Z20" s="38"/>
       <c r="AA20" s="22"/>
     </row>
-    <row r="21" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" ref="A21:I21" si="36">A3</f>
         <v>2</v>
@@ -23927,7 +23877,7 @@
       <c r="Z21" s="39"/>
       <c r="AA21" s="36"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ref="A22:I22" si="38">A4</f>
         <v>3</v>
@@ -23985,7 +23935,7 @@
         <v>-0.345763936554634</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ref="A23:I23" si="41">A5</f>
         <v>4</v>
@@ -24049,7 +23999,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:I24" si="43">A6</f>
         <v>5</v>
@@ -24115,7 +24065,7 @@
         <v>0.56234237357993089</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:I25" si="44">A7</f>
         <v>6</v>
@@ -24173,7 +24123,7 @@
         <v>8.6393294883698582E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26:I26" si="45">A8</f>
         <v>7</v>
@@ -24231,7 +24181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>A9</f>
         <v>8</v>
@@ -24289,7 +24239,7 @@
         <v>-0.18680983383566183</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>103</v>
       </c>
@@ -24344,7 +24294,7 @@
         <v>SS4</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>SUMPRODUCT(B12:B27,$J$12:$J$27)/(8/2*2)</f>
         <v>-5.3750000000000013E-2</v>
@@ -24390,7 +24340,7 @@
         <v>0.97515624999999961</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>96</v>
       </c>
@@ -24416,7 +24366,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>B29/2</f>
         <v>-2.6875000000000007E-2</v>
@@ -24453,15 +24403,15 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N12:N19">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>$O$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>$P$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T15">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",T13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24483,9 +24433,9 @@
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -24508,7 +24458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24531,7 +24481,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24554,7 +24504,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24577,7 +24527,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24600,7 +24550,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24623,7 +24573,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24646,7 +24596,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24669,7 +24619,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -24692,7 +24642,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -24715,7 +24665,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -24738,7 +24688,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -24761,7 +24711,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -24784,7 +24734,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -24807,7 +24757,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -24830,7 +24780,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -24853,7 +24803,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -24876,7 +24826,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -24929,7 +24879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -24993,7 +24943,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -25057,7 +25007,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -25121,7 +25071,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -25185,7 +25135,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -25249,7 +25199,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -25313,7 +25263,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -25377,7 +25327,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -25441,7 +25391,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -25505,7 +25455,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -25569,7 +25519,7 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -25633,7 +25583,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -25697,7 +25647,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
@@ -25761,7 +25711,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -25825,7 +25775,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -25889,7 +25839,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16</v>
       </c>
@@ -25953,7 +25903,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -26021,7 +25971,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -26089,7 +26039,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -26157,7 +26107,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -26225,7 +26175,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -26293,7 +26243,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -26361,7 +26311,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7</v>
       </c>
@@ -26429,7 +26379,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
@@ -26497,7 +26447,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -26565,7 +26515,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -26633,7 +26583,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -26701,7 +26651,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -26769,7 +26719,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13</v>
       </c>
@@ -26837,7 +26787,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
       </c>
@@ -26905,7 +26855,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15</v>
       </c>
@@ -26973,7 +26923,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>16</v>
       </c>
@@ -27041,7 +26991,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>134</v>
       </c>
@@ -27088,7 +27038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B53">
         <f>SUMPRODUCT(B20:B51,$Q$20:$Q$51)/(16/2*2)</f>
         <v>-0.65437499999999993</v>
@@ -27150,7 +27100,7 @@
         <v>0.12062499999999991</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B55">
         <f>B53+O53</f>
         <v>-0.75874999999999992</v>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW14/hw_14.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW14/hw_14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7F872E-82D5-485B-8C2C-F41D662BD1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBA0653-D5F1-48B6-A815-BA53808DA18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25770" yWindow="8205" windowWidth="21600" windowHeight="11295" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="2440" windowWidth="19200" windowHeight="11460" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
@@ -3898,13 +3898,13 @@
       <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4078,25 +4078,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0.72461135818765321</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0.5250616204145554</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0.4944204346348493</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>5.5120843728792854</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -4136,12 +4136,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>64</v>
@@ -4159,7 +4159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>3.0338150705478259E-13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -4195,7 +4195,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -4209,8 +4209,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>69</v>
@@ -4237,7 +4237,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>88.128751133632562</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>-5.1251497341903741E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>-0.38954840142426894</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>2.6538003455693609E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0.47674437828932248</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>-0.13599871214233555</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -4459,21 +4459,21 @@
       <selection activeCell="A10" sqref="A10:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>0.71119000780630359</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>0.5057912272035302</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>0.48498243676999464</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>5.5632953955871027</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -4513,12 +4513,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>64</v>
@@ -4536,7 +4536,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>7.2297274395654958E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
@@ -4586,8 +4586,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>69</v>
@@ -4614,7 +4614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>92.687077043925939</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>-5.3604306473371693E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>-0.39238823171239368</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>2.643420096959994E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -4773,9 +4773,9 @@
       <selection sqref="A1:AC29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>38</v>
@@ -4862,7 +4862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -5414,7 +5414,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -5473,7 +5473,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -5729,7 +5729,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -5942,7 +5942,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -6254,7 +6254,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -6337,7 +6337,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -6619,15 +6619,15 @@
   <dimension ref="A1:AP102"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BC7" sqref="BC7"/>
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>INCOME</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -13373,7 +13373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -19379,7 +19379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -19995,7 +19995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -20149,7 +20149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -20919,7 +20919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -21381,7 +21381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -21535,7 +21535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -21689,7 +21689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:42" x14ac:dyDescent="0.4">
       <c r="B102">
         <f>AVERAGE(B2:B101)</f>
         <v>45.738999999999997</v>
@@ -22191,25 +22191,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.75" customWidth="1"/>
-    <col min="21" max="21" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" customWidth="1"/>
+    <col min="21" max="21" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>76</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -22345,7 +22345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -22497,7 +22497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -22570,7 +22570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -22780,7 +22780,7 @@
         <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -22853,7 +22853,7 @@
         <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="U10" s="26" t="s">
         <v>136</v>
       </c>
@@ -22881,7 +22881,7 @@
         <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f>A1</f>
         <v>test</v>
@@ -22969,7 +22969,7 @@
         <v>4.8443356749436166</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" ref="A12:J12" si="14">A2</f>
         <v>1</v>
@@ -23068,7 +23068,7 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="33"/>
     </row>
-    <row r="13" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <f t="shared" ref="A13:J13" si="17">A3</f>
         <v>2</v>
@@ -23163,7 +23163,7 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="23"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" ref="A14:J14" si="23">A4</f>
         <v>3</v>
@@ -23244,7 +23244,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" ref="A15:J15" si="24">A5</f>
         <v>4</v>
@@ -23325,7 +23325,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" ref="A16:J16" si="25">A6</f>
         <v>5</v>
@@ -23427,7 +23427,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" ref="A17:J17" si="26">A7</f>
         <v>6</v>
@@ -23535,7 +23535,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" ref="A18:J18" si="27">A8</f>
         <v>7</v>
@@ -23643,7 +23643,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" ref="A19:J19" si="34">A9</f>
         <v>8</v>
@@ -23751,7 +23751,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" ref="A20:I20" si="35">A2</f>
         <v>1</v>
@@ -23811,7 +23811,7 @@
       <c r="Z20" s="38"/>
       <c r="AA20" s="22"/>
     </row>
-    <row r="21" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <f t="shared" ref="A21:I21" si="36">A3</f>
         <v>2</v>
@@ -23877,7 +23877,7 @@
       <c r="Z21" s="39"/>
       <c r="AA21" s="36"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" ref="A22:I22" si="38">A4</f>
         <v>3</v>
@@ -23935,7 +23935,7 @@
         <v>-0.345763936554634</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" ref="A23:I23" si="41">A5</f>
         <v>4</v>
@@ -23999,7 +23999,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" ref="A24:I24" si="43">A6</f>
         <v>5</v>
@@ -24065,7 +24065,7 @@
         <v>0.56234237357993089</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" ref="A25:I25" si="44">A7</f>
         <v>6</v>
@@ -24123,7 +24123,7 @@
         <v>8.6393294883698582E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" ref="A26:I26" si="45">A8</f>
         <v>7</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27">
         <f>A9</f>
         <v>8</v>
@@ -24239,7 +24239,7 @@
         <v>-0.18680983383566183</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>103</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>SS4</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B29">
         <f>SUMPRODUCT(B12:B27,$J$12:$J$27)/(8/2*2)</f>
         <v>-5.3750000000000013E-2</v>
@@ -24340,7 +24340,7 @@
         <v>0.97515624999999961</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>96</v>
       </c>
@@ -24366,7 +24366,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B31">
         <f>B29/2</f>
         <v>-2.6875000000000007E-2</v>
@@ -24429,13 +24429,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFE66D8-8231-45C4-BCC7-75C2385428AA}">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -24458,7 +24458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24481,7 +24481,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24504,7 +24504,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24527,7 +24527,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24550,7 +24550,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24573,7 +24573,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -24642,7 +24642,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -24665,7 +24665,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -24711,7 +24711,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -24734,7 +24734,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -24780,7 +24780,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -24826,7 +24826,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -24943,7 +24943,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -25007,7 +25007,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>3</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4</v>
       </c>
@@ -25135,7 +25135,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>5</v>
       </c>
@@ -25199,7 +25199,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>6</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7</v>
       </c>
@@ -25327,7 +25327,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>8</v>
       </c>
@@ -25391,7 +25391,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>9</v>
       </c>
@@ -25455,7 +25455,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>11</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>12</v>
       </c>
@@ -25647,7 +25647,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>13</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>14</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>15</v>
       </c>
@@ -25839,7 +25839,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>16</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2</v>
       </c>
@@ -26039,7 +26039,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>4</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>5</v>
       </c>
@@ -26243,7 +26243,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>6</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>7</v>
       </c>
@@ -26379,7 +26379,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>8</v>
       </c>
@@ -26447,7 +26447,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>9</v>
       </c>
@@ -26515,7 +26515,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>10</v>
       </c>
@@ -26583,7 +26583,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>11</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>12</v>
       </c>
@@ -26719,7 +26719,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>13</v>
       </c>
@@ -26787,7 +26787,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>14</v>
       </c>
@@ -26855,7 +26855,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>15</v>
       </c>
@@ -26923,7 +26923,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>16</v>
       </c>
@@ -26991,7 +26991,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>134</v>
       </c>
@@ -27038,7 +27038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B53">
         <f>SUMPRODUCT(B20:B51,$Q$20:$Q$51)/(16/2*2)</f>
         <v>-0.65437499999999993</v>
@@ -27100,7 +27100,7 @@
         <v>0.12062499999999991</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B55">
         <f>B53+O53</f>
         <v>-0.75874999999999992</v>
